--- a/24-25Year/Spring25/DES-315/des-315-card-game/CardGameInterface.xlsx
+++ b/24-25Year/Spring25/DES-315/des-315-card-game/CardGameInterface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingLoui1221\Documents\DIT Stuff\DITRepo\DITWork\24-25Year\Spring25\DES-315\des-315-card-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaos\Documents\DIT Work\DITRepo\24-25Year\Spring25\DES-315\des-315-card-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D1E5B7-B8AD-4B12-AA4D-FF8BBAC405E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69BB5C-9E90-420F-9DEA-A00A62FD7E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>POST-MORTEM (200+ Words)</t>
   </si>
@@ -1257,6 +1257,12 @@
   </si>
   <si>
     <t>On Track</t>
+  </si>
+  <si>
+    <t>No Progress</t>
+  </si>
+  <si>
+    <t>On Time</t>
   </si>
 </sst>
 </file>
@@ -2240,15 +2246,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="130.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="130.54296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -2257,7 +2263,7 @@
     <row r="1" spans="1:5" s="3" customFormat="1" ht="24" thickBot="1">
       <c r="A1" s="29">
         <f>MIN(1,(MAX(SUM(A6,A13,A20,A27,A34),(SUM(A4:A980)+IF(ISBLANK(A2),0,MIN(0,A2-0.67)))*IF(A34&lt;&gt;"n/a",1,IF(A27&lt;&gt;"n/a",1.25,IF(A20&lt;&gt;"n/a",5/3,IF(A13&lt;&gt;"n/a",2.5,5))))+IF(A41&lt;&gt;"n/a",0,IF(SUM(A6,A13,A20,A27,A34)&gt;0,0.1,0)))))</f>
-        <v>0.8</v>
+        <v>0.58000000000000018</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>9</v>
@@ -2267,9 +2273,9 @@
       </c>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="31.9" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="47" thickBot="1">
       <c r="A2" s="28">
-        <v>0.8</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>8</v>
@@ -2278,21 +2284,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="4.1500000000000004" customHeight="1">
+    <row r="3" spans="1:5">
       <c r="A3" s="53"/>
       <c r="B3" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:5" ht="48" thickBot="1">
+    <row r="4" spans="1:5" ht="47" thickBot="1">
       <c r="A4" s="54"/>
       <c r="B4" s="57"/>
       <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:5" ht="16" thickBot="1">
       <c r="A5" s="55"/>
       <c r="B5" s="58"/>
       <c r="C5" s="15"/>
@@ -2371,48 +2377,56 @@
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="41" t="str">
+      <c r="A13" s="41">
         <f>IF(LEFT(B13,2)="No",0,IF(LEFT(B13,4)="Some",0.03,IF(LEFT(B13,2)="On",0.05,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B13" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A14" s="22" t="str">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="31">
+      <c r="A14" s="22">
         <f t="shared" ref="A14:A16" si="1">IF(LEFT(B14,2)="No",-0.1,IF(LEFT(B14,7)="Partial",0.01,IF(LEFT(B14,4)="Full",0.03,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B14" s="24"/>
+        <v>0.03</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A15" s="22" t="str">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="31">
+      <c r="A15" s="22">
         <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-      <c r="B15" s="25"/>
+        <v>0.03</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A16" s="22" t="str">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="31.5" thickBot="1">
+      <c r="A16" s="22">
         <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-      <c r="B16" s="26"/>
+        <v>0.03</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2440,48 +2454,56 @@
       </c>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="19" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A20" s="21" t="str">
+      <c r="A20" s="21">
         <f>IF(LEFT(B20,2)="No",0,IF(LEFT(B20,4)="Some",0.03,IF(LEFT(B20,2)="On",0.05,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B20" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="C20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A21" s="21" t="str">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="31">
+      <c r="A21" s="21">
         <f t="shared" ref="A21:A23" si="3">IF(LEFT(B21,2)="No",-0.1,IF(LEFT(B21,7)="Partial",0.01,IF(LEFT(B21,4)="Full",0.03,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B21" s="24"/>
+        <v>0.03</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A22" s="22" t="str">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="31">
+      <c r="A22" s="22">
         <f t="shared" si="3"/>
-        <v>n/a</v>
-      </c>
-      <c r="B22" s="25"/>
+        <v>0.03</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="C22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A23" s="23" t="str">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="16" thickBot="1">
+      <c r="A23" s="23">
         <f t="shared" si="3"/>
-        <v>n/a</v>
-      </c>
-      <c r="B23" s="26"/>
+        <v>0.03</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
@@ -2509,48 +2531,56 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="26" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A27" s="21" t="str">
+      <c r="A27" s="21">
         <f>IF(LEFT(B27,2)="No",0,IF(LEFT(B27,4)="Some",0.03,IF(LEFT(B27,2)="On",0.05,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B27" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="C27" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A28" s="21" t="str">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="31">
+      <c r="A28" s="21">
         <f t="shared" ref="A28:A30" si="5">IF(LEFT(B28,2)="No",-0.1,IF(LEFT(B28,7)="Partial",0.01,IF(LEFT(B28,4)="Full",0.03,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B28" s="24"/>
+        <v>0.03</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C28" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A29" s="22" t="str">
+      <c r="A29" s="22">
         <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-      <c r="B29" s="25"/>
+        <v>0.03</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A30" s="23" t="str">
+      <c r="A30" s="23">
         <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-      <c r="B30" s="26"/>
+        <v>0.03</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C30" s="5" t="s">
         <v>23</v>
       </c>
@@ -2578,48 +2608,56 @@
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="33" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
       <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A34" s="21" t="str">
+      <c r="A34" s="21">
         <f>IF(LEFT(B34,2)="No",0,IF(LEFT(B34,4)="Some",0.03,IF(LEFT(B34,2)="On",0.05,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B34" s="24"/>
+        <v>0.05</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="C34" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A35" s="21" t="str">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="31">
+      <c r="A35" s="21">
         <f t="shared" ref="A35:A37" si="7">IF(LEFT(B35,2)="No",-0.1,IF(LEFT(B35,7)="Partial",0.01,IF(LEFT(B35,4)="Full",0.03,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B35" s="36"/>
+        <v>0.03</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="C35" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A36" s="22" t="str">
+    <row r="36" spans="1:5" s="2" customFormat="1">
+      <c r="A36" s="22">
         <f t="shared" si="7"/>
-        <v>n/a</v>
-      </c>
-      <c r="B36" s="37"/>
+        <v>0.03</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="C36" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A37" s="23" t="str">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="31.5" thickBot="1">
+      <c r="A37" s="23">
         <f t="shared" si="7"/>
-        <v>n/a</v>
-      </c>
-      <c r="B37" s="38"/>
+        <v>0.03</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>52</v>
+      </c>
       <c r="C37" s="5" t="s">
         <v>26</v>
       </c>
@@ -2647,48 +2685,56 @@
       </c>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="40" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" s="32" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A41" s="31" t="str">
+      <c r="A41" s="31">
         <f>IF(LEFT(B41,1)="5",0.05,IF(LEFT(B41,1)="4",0.04,IF(LEFT(B41,1)="3",0.03,IF(LEFT(B41,1)="2",0.02,IF(LEFT(B41,1)="1",0.01,IF(LEFT(B41,1)="O",0,IF(LEFT(B41,1)="L",0,"n/a")))))))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B41" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>55</v>
+      </c>
       <c r="C41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="33"/>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A42" s="21" t="str">
+      <c r="A42" s="21">
         <f t="shared" ref="A42:A44" si="9">IF(LEFT(B42,2)="No",-0.1,IF(LEFT(B42,7)="Partial",0.01,IF(LEFT(B42,4)="Full",0.03,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B42" s="24"/>
+        <v>0.03</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A43" s="22" t="str">
+      <c r="A43" s="22">
         <f t="shared" si="9"/>
-        <v>n/a</v>
-      </c>
-      <c r="B43" s="25"/>
+        <v>0.03</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="C43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A44" s="23" t="str">
+      <c r="A44" s="23">
         <f t="shared" si="9"/>
-        <v>n/a</v>
-      </c>
-      <c r="B44" s="26"/>
+        <v>0.03</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C44" s="6" t="s">
         <v>15</v>
       </c>
@@ -2706,17 +2752,19 @@
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A46" s="23" t="str">
+      <c r="A46" s="23">
         <f t="shared" si="10"/>
-        <v>n/a</v>
-      </c>
-      <c r="B46" s="26"/>
+        <v>0.03</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C46" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="16.5" thickBot="1"/>
+    <row r="47" spans="1:5" ht="16" thickBot="1"/>
     <row r="48" spans="1:5">
       <c r="A48" s="59" t="s">
         <v>39</v>
@@ -2742,7 +2790,7 @@
     <row r="52" spans="1:3">
       <c r="C52" s="62"/>
     </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1">
+    <row r="53" spans="1:3" ht="16" thickBot="1">
       <c r="C53" s="63"/>
     </row>
   </sheetData>
@@ -2873,9 +2921,9 @@
       <selection activeCell="A3" sqref="A3:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" customWidth="1"/>
+    <col min="1" max="1" width="89.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24" thickBot="1">
@@ -2883,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:1" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A2" s="10" t="str">
         <f>IF(LEN(A3) &gt; 1000,"",IF(LEN(A3) &gt; 500,"You need more post-mortem reflection.",IF(A3&gt;0,IF(A3="If you think you have accomplished one or more bonus goals that you are worried might be overlooked, mention those here.","How did the project go? What did you learn? What could you improve?","You need A LOT MORE post-mortem reflection."),"How did the project go? What did you learn? What could you improve?")))</f>
         <v>You need A LOT MORE post-mortem reflection.</v>
@@ -3051,18 +3099,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875" style="42"/>
-    <col min="8" max="8" width="8.85546875" style="43"/>
-    <col min="9" max="9" width="11.5703125" style="42" customWidth="1"/>
-    <col min="10" max="13" width="11.5703125" style="43" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="10.7265625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.81640625" style="42"/>
+    <col min="8" max="8" width="8.81640625" style="43"/>
+    <col min="9" max="9" width="11.54296875" style="42" customWidth="1"/>
+    <col min="10" max="13" width="11.54296875" style="43" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="23.5">
       <c r="A1" s="66" t="s">
         <v>36</v>
       </c>
@@ -3117,9 +3165,9 @@
       <selection activeCell="A3" sqref="A3:A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="90.5703125" customWidth="1"/>
+    <col min="1" max="1" width="90.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24" thickBot="1">
@@ -3127,7 +3175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:1" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A2" s="10" t="str">
         <f>IF(LEN(A3) &gt; 1000,"",IF(LEN(A3) &gt; 500,"You need more telemetry analysis.",IF(A3&gt;0,"You need A LOT MORE telemetry analysis.","What did your telemetry data tell you and what changes did you make based on that data?")))</f>
         <v>What did your telemetry data tell you and what changes did you make based on that data?</v>
@@ -3404,13 +3452,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="172.85546875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="172.81640625" style="50" customWidth="1"/>
     <col min="2" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25">
+    <row r="1" spans="1:1" ht="23.5">
       <c r="A1" s="48" t="s">
         <v>34</v>
       </c>

--- a/24-25Year/Spring25/DES-315/des-315-card-game/CardGameInterface.xlsx
+++ b/24-25Year/Spring25/DES-315/des-315-card-game/CardGameInterface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaos\Documents\DIT Work\DITRepo\24-25Year\Spring25\DES-315\des-315-card-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingLoui1221\Documents\DIT Stuff\DITRepo\DITWork\24-25Year\Spring25\DES-315\des-315-card-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69BB5C-9E90-420F-9DEA-A00A62FD7E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7B3B24-23B1-4FDF-8A87-5EE50FCCAF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>POST-MORTEM (200+ Words)</t>
   </si>
@@ -1263,6 +1263,12 @@
   </si>
   <si>
     <t>On Time</t>
+  </si>
+  <si>
+    <t>Partial Credit</t>
+  </si>
+  <si>
+    <t>No Credit</t>
   </si>
 </sst>
 </file>
@@ -2247,14 +2253,14 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="130.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="130.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -2263,7 +2269,7 @@
     <row r="1" spans="1:5" s="3" customFormat="1" ht="24" thickBot="1">
       <c r="A1" s="29">
         <f>MIN(1,(MAX(SUM(A6,A13,A20,A27,A34),(SUM(A4:A980)+IF(ISBLANK(A2),0,MIN(0,A2-0.67)))*IF(A34&lt;&gt;"n/a",1,IF(A27&lt;&gt;"n/a",1.25,IF(A20&lt;&gt;"n/a",5/3,IF(A13&lt;&gt;"n/a",2.5,5))))+IF(A41&lt;&gt;"n/a",0,IF(SUM(A6,A13,A20,A27,A34)&gt;0,0.1,0)))))</f>
-        <v>0.58000000000000018</v>
+        <v>0.1</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>9</v>
@@ -2273,7 +2279,7 @@
       </c>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="47" thickBot="1">
+    <row r="2" spans="1:5" ht="48" thickBot="1">
       <c r="A2" s="28">
         <v>0.57999999999999996</v>
       </c>
@@ -2291,14 +2297,14 @@
       </c>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:5" ht="47" thickBot="1">
+    <row r="4" spans="1:5" ht="48" thickBot="1">
       <c r="A4" s="54"/>
       <c r="B4" s="57"/>
       <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1">
       <c r="A5" s="55"/>
       <c r="B5" s="58"/>
       <c r="C5" s="15"/>
@@ -2377,7 +2383,7 @@
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -2393,7 +2399,7 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="31">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="31.5">
       <c r="A14" s="22">
         <f t="shared" ref="A14:A16" si="1">IF(LEFT(B14,2)="No",-0.1,IF(LEFT(B14,7)="Partial",0.01,IF(LEFT(B14,4)="Full",0.03,"n/a")))</f>
         <v>0.03</v>
@@ -2406,26 +2412,26 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="31">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="31.5">
       <c r="A15" s="22">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="31.5" thickBot="1">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="32.25" thickBot="1">
       <c r="A16" s="22">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
@@ -2454,7 +2460,7 @@
       </c>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -2470,7 +2476,7 @@
       </c>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="31">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="31.5">
       <c r="A21" s="21">
         <f t="shared" ref="A21:A23" si="3">IF(LEFT(B21,2)="No",-0.1,IF(LEFT(B21,7)="Partial",0.01,IF(LEFT(B21,4)="Full",0.03,"n/a")))</f>
         <v>0.03</v>
@@ -2483,7 +2489,7 @@
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="31">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="31.5">
       <c r="A22" s="22">
         <f t="shared" si="3"/>
         <v>0.03</v>
@@ -2496,13 +2502,13 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="16" thickBot="1">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="32.25" thickBot="1">
       <c r="A23" s="23">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>49</v>
@@ -2531,7 +2537,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
+    <row r="26" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -2547,13 +2553,13 @@
       </c>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="31">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="31.5">
       <c r="A28" s="21">
         <f t="shared" ref="A28:A30" si="5">IF(LEFT(B28,2)="No",-0.1,IF(LEFT(B28,7)="Partial",0.01,IF(LEFT(B28,4)="Full",0.03,"n/a")))</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>48</v>
@@ -2563,10 +2569,10 @@
     <row r="29" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A29" s="22">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>22</v>
@@ -2576,10 +2582,10 @@
     <row r="30" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A30" s="23">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>23</v>
@@ -2608,7 +2614,7 @@
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
+    <row r="33" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
       <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -2624,39 +2630,39 @@
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="31">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="31.5">
       <c r="A35" s="21">
         <f t="shared" ref="A35:A37" si="7">IF(LEFT(B35,2)="No",-0.1,IF(LEFT(B35,7)="Partial",0.01,IF(LEFT(B35,4)="Full",0.03,"n/a")))</f>
-        <v>0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="31.5">
       <c r="A36" s="22">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="31.5" thickBot="1">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="32.25" thickBot="1">
       <c r="A37" s="23">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>26</v>
@@ -2685,7 +2691,7 @@
       </c>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
+    <row r="40" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" s="32" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -2704,10 +2710,10 @@
     <row r="42" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A42" s="21">
         <f t="shared" ref="A42:A44" si="9">IF(LEFT(B42,2)="No",-0.1,IF(LEFT(B42,7)="Partial",0.01,IF(LEFT(B42,4)="Full",0.03,"n/a")))</f>
-        <v>0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>10</v>
@@ -2717,10 +2723,10 @@
     <row r="43" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A43" s="22">
         <f t="shared" si="9"/>
-        <v>0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>29</v>
@@ -2754,17 +2760,17 @@
     <row r="46" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A46" s="23">
         <f t="shared" si="10"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="16" thickBot="1"/>
+    <row r="47" spans="1:5" ht="16.5" thickBot="1"/>
     <row r="48" spans="1:5">
       <c r="A48" s="59" t="s">
         <v>39</v>
@@ -2790,7 +2796,7 @@
     <row r="52" spans="1:3">
       <c r="C52" s="62"/>
     </row>
-    <row r="53" spans="1:3" ht="16" thickBot="1">
+    <row r="53" spans="1:3" ht="16.5" thickBot="1">
       <c r="C53" s="63"/>
     </row>
   </sheetData>
@@ -2921,9 +2927,9 @@
       <selection activeCell="A3" sqref="A3:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="89.7265625" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24" thickBot="1">
@@ -2931,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="9" customFormat="1" ht="16" thickBot="1">
+    <row r="2" spans="1:1" s="9" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="10" t="str">
         <f>IF(LEN(A3) &gt; 1000,"",IF(LEN(A3) &gt; 500,"You need more post-mortem reflection.",IF(A3&gt;0,IF(A3="If you think you have accomplished one or more bonus goals that you are worried might be overlooked, mention those here.","How did the project go? What did you learn? What could you improve?","You need A LOT MORE post-mortem reflection."),"How did the project go? What did you learn? What could you improve?")))</f>
         <v>You need A LOT MORE post-mortem reflection.</v>
@@ -3099,18 +3105,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.7265625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.81640625" style="42"/>
-    <col min="8" max="8" width="8.81640625" style="43"/>
-    <col min="9" max="9" width="11.54296875" style="42" customWidth="1"/>
-    <col min="10" max="13" width="11.54296875" style="43" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="2" width="10.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" style="42"/>
+    <col min="8" max="8" width="8.85546875" style="43"/>
+    <col min="9" max="9" width="11.5703125" style="42" customWidth="1"/>
+    <col min="10" max="13" width="11.5703125" style="43" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="23.5">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="23.25">
       <c r="A1" s="66" t="s">
         <v>36</v>
       </c>
@@ -3165,9 +3171,9 @@
       <selection activeCell="A3" sqref="A3:A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="90.54296875" customWidth="1"/>
+    <col min="1" max="1" width="90.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24" thickBot="1">
@@ -3175,7 +3181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="9" customFormat="1" ht="16" thickBot="1">
+    <row r="2" spans="1:1" s="9" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="10" t="str">
         <f>IF(LEN(A3) &gt; 1000,"",IF(LEN(A3) &gt; 500,"You need more telemetry analysis.",IF(A3&gt;0,"You need A LOT MORE telemetry analysis.","What did your telemetry data tell you and what changes did you make based on that data?")))</f>
         <v>What did your telemetry data tell you and what changes did you make based on that data?</v>
@@ -3452,13 +3458,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="172.81640625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="172.85546875" style="50" customWidth="1"/>
     <col min="2" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.5">
+    <row r="1" spans="1:1" ht="23.25">
       <c r="A1" s="48" t="s">
         <v>34</v>
       </c>

--- a/24-25Year/Spring25/DES-315/des-315-card-game/CardGameInterface.xlsx
+++ b/24-25Year/Spring25/DES-315/des-315-card-game/CardGameInterface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingLoui1221\Documents\DIT Stuff\DITRepo\DITWork\24-25Year\Spring25\DES-315\des-315-card-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7B3B24-23B1-4FDF-8A87-5EE50FCCAF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E26945A-C9AF-461A-96B9-24FE93E7FC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2252,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2633,10 +2633,10 @@
     <row r="35" spans="1:5" s="2" customFormat="1" ht="31.5">
       <c r="A35" s="21">
         <f t="shared" ref="A35:A37" si="7">IF(LEFT(B35,2)="No",-0.1,IF(LEFT(B35,7)="Partial",0.01,IF(LEFT(B35,4)="Full",0.03,"n/a")))</f>
-        <v>-0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>24</v>
